--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_73_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_73_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.4793126953573115, 4.1498347938910065]</t>
+          <t>[3.471465692726544, 4.157681796521774]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[-0.0200092276080599, 0.33330973469886205]</t>
+          <t>[-0.019994694496211274, 0.3332952015870134]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.08084228785322334</v>
+        <v>0.08081815858792352</v>
       </c>
       <c r="V2" t="n">
-        <v>0.08084228785322334</v>
+        <v>0.08081815858792352</v>
       </c>
       <c r="W2" t="n">
         <v>3.478518518518602</v>
